--- a/artfynd/A 13307-2022.xlsx
+++ b/artfynd/A 13307-2022.xlsx
@@ -927,10 +927,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>103995946</v>
+        <v>103995893</v>
       </c>
       <c r="B4" t="n">
-        <v>85703</v>
+        <v>89356</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -939,25 +939,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>510</v>
+        <v>5447</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>551317.3444561965</v>
+        <v>551269.8833492307</v>
       </c>
       <c r="R4" t="n">
-        <v>7018311.838174745</v>
+        <v>7018434.367603642</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -992,7 +992,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Ragunda</t>
+          <t>Borgvattnet</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1048,7 +1048,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>103995893</v>
+        <v>103995905</v>
       </c>
       <c r="B5" t="n">
         <v>89356</v>
@@ -1088,10 +1088,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>551269.8833492307</v>
+        <v>551371.3714973846</v>
       </c>
       <c r="R5" t="n">
-        <v>7018434.367603642</v>
+        <v>7018483.680647727</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1169,10 +1169,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>103995962</v>
+        <v>103995821</v>
       </c>
       <c r="B6" t="n">
-        <v>77595</v>
+        <v>78602</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1185,21 +1185,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6450</v>
+        <v>6463</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>551321.2191096875</v>
+        <v>551370.0174825852</v>
       </c>
       <c r="R6" t="n">
-        <v>7018323.148957836</v>
+        <v>7018427.416613898</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Ragunda</t>
+          <t>Borgvattnet</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1290,10 +1290,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>103995905</v>
+        <v>103995847</v>
       </c>
       <c r="B7" t="n">
-        <v>89356</v>
+        <v>89832</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1302,25 +1302,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5447</v>
+        <v>1209</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>551371.3714973846</v>
+        <v>551362.9972198715</v>
       </c>
       <c r="R7" t="n">
-        <v>7018483.680647727</v>
+        <v>7018415.605941885</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1411,10 +1411,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>103995821</v>
+        <v>103995946</v>
       </c>
       <c r="B8" t="n">
-        <v>78602</v>
+        <v>85703</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1423,25 +1423,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6463</v>
+        <v>510</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1451,10 +1451,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>551370.0174825852</v>
+        <v>551317.3444561965</v>
       </c>
       <c r="R8" t="n">
-        <v>7018427.416613898</v>
+        <v>7018311.838174745</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>Borgvattnet</t>
+          <t>Ragunda</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1532,10 +1532,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>103995847</v>
+        <v>103995962</v>
       </c>
       <c r="B9" t="n">
-        <v>89832</v>
+        <v>77595</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1544,25 +1544,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1209</v>
+        <v>6450</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>551362.9972198715</v>
+        <v>551321.2191096875</v>
       </c>
       <c r="R9" t="n">
-        <v>7018415.605941885</v>
+        <v>7018323.148957836</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>Borgvattnet</t>
+          <t>Ragunda</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AD9" t="b">

--- a/artfynd/A 13307-2022.xlsx
+++ b/artfynd/A 13307-2022.xlsx
@@ -927,10 +927,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>103995893</v>
+        <v>103995946</v>
       </c>
       <c r="B4" t="n">
-        <v>89356</v>
+        <v>85703</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -939,25 +939,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5447</v>
+        <v>510</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>551269.8833492307</v>
+        <v>551317.3444561965</v>
       </c>
       <c r="R4" t="n">
-        <v>7018434.367603642</v>
+        <v>7018311.838174745</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -992,7 +992,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Borgvattnet</t>
+          <t>Ragunda</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1048,7 +1048,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>103995905</v>
+        <v>103995893</v>
       </c>
       <c r="B5" t="n">
         <v>89356</v>
@@ -1088,10 +1088,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>551371.3714973846</v>
+        <v>551269.8833492307</v>
       </c>
       <c r="R5" t="n">
-        <v>7018483.680647727</v>
+        <v>7018434.367603642</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1169,10 +1169,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>103995821</v>
+        <v>103995962</v>
       </c>
       <c r="B6" t="n">
-        <v>78602</v>
+        <v>77595</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1185,21 +1185,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6463</v>
+        <v>6450</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>551370.0174825852</v>
+        <v>551321.2191096875</v>
       </c>
       <c r="R6" t="n">
-        <v>7018427.416613898</v>
+        <v>7018323.148957836</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Borgvattnet</t>
+          <t>Ragunda</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1290,10 +1290,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>103995847</v>
+        <v>103995905</v>
       </c>
       <c r="B7" t="n">
-        <v>89832</v>
+        <v>89356</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1302,25 +1302,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1209</v>
+        <v>5447</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>551362.9972198715</v>
+        <v>551371.3714973846</v>
       </c>
       <c r="R7" t="n">
-        <v>7018415.605941885</v>
+        <v>7018483.680647727</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1411,10 +1411,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>103995946</v>
+        <v>103995821</v>
       </c>
       <c r="B8" t="n">
-        <v>85703</v>
+        <v>78602</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1423,25 +1423,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>510</v>
+        <v>6463</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1451,10 +1451,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>551317.3444561965</v>
+        <v>551370.0174825852</v>
       </c>
       <c r="R8" t="n">
-        <v>7018311.838174745</v>
+        <v>7018427.416613898</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>Ragunda</t>
+          <t>Borgvattnet</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1532,10 +1532,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>103995962</v>
+        <v>103995847</v>
       </c>
       <c r="B9" t="n">
-        <v>77595</v>
+        <v>89832</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1544,25 +1544,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6450</v>
+        <v>1209</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>551321.2191096875</v>
+        <v>551362.9972198715</v>
       </c>
       <c r="R9" t="n">
-        <v>7018323.148957836</v>
+        <v>7018415.605941885</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>Ragunda</t>
+          <t>Borgvattnet</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD9" t="b">
